--- a/radio/Reporte Novedades.xlsx
+++ b/radio/Reporte Novedades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="93">
   <si>
     <t>Nombre Del Empleado</t>
   </si>
@@ -88,6 +88,9 @@
     <t>ESCAÑO ARRIETA ROSALBA</t>
   </si>
   <si>
+    <t>Prueba Producción</t>
+  </si>
+  <si>
     <t>CASARRUBIA JUNCO YULIANA AIDETH</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>2013-12-16</t>
   </si>
   <si>
+    <t>2022-09-08</t>
+  </si>
+  <si>
     <t>2022-08-02</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
     <t>PROPIEDADES-INVERSIONES</t>
   </si>
   <si>
+    <t>PRUEBA COVID-19</t>
+  </si>
+  <si>
     <t>PARDELA-BQUILLA</t>
   </si>
   <si>
@@ -223,12 +232,15 @@
     <t>2022-09-14</t>
   </si>
   <si>
-    <t>2022-09-08</t>
-  </si>
-  <si>
     <t>2022-09-04</t>
   </si>
   <si>
+    <t>2022-09-22</t>
+  </si>
+  <si>
+    <t>2022-09-13</t>
+  </si>
+  <si>
     <t>2022-09-03</t>
   </si>
   <si>
@@ -244,9 +256,6 @@
     <t>2022-09-24</t>
   </si>
   <si>
-    <t>2022-09-22</t>
-  </si>
-  <si>
     <t>2022-09-06</t>
   </si>
   <si>
@@ -266,9 +275,6 @@
   </si>
   <si>
     <t>2022-09-02</t>
-  </si>
-  <si>
-    <t>Prueba Producción</t>
   </si>
   <si>
     <t>ISSA ESPINOSA TAMAM ANGELA</t>
@@ -644,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,10 +720,10 @@
         <v>51981138</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>100030004</v>
@@ -729,19 +735,19 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -752,10 +758,10 @@
         <v>51981138</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>100030004</v>
@@ -767,19 +773,19 @@
         <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -790,10 +796,10 @@
         <v>1010168175</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>100030004</v>
@@ -805,19 +811,19 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -828,10 +834,10 @@
         <v>1015396192</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>100030004</v>
@@ -843,19 +849,19 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s">
         <v>12</v>
@@ -869,10 +875,10 @@
         <v>1074908503</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>100030004</v>
@@ -884,19 +890,19 @@
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -907,10 +913,10 @@
         <v>1193277284</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>100030004</v>
@@ -922,19 +928,19 @@
         <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -945,10 +951,10 @@
         <v>39644743</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>100030006</v>
@@ -960,19 +966,19 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -983,10 +989,10 @@
         <v>39644743</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>100030006</v>
@@ -998,19 +1004,19 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1021,10 +1027,10 @@
         <v>39644743</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>100030006</v>
@@ -1036,19 +1042,19 @@
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1059,10 +1065,10 @@
         <v>39644743</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>100030006</v>
@@ -1074,19 +1080,19 @@
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1097,10 +1103,10 @@
         <v>39644743</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>100030006</v>
@@ -1112,19 +1118,19 @@
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1135,10 +1141,10 @@
         <v>39644743</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>100030006</v>
@@ -1150,19 +1156,19 @@
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1173,10 +1179,10 @@
         <v>39644743</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>100030006</v>
@@ -1188,19 +1194,19 @@
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1211,10 +1217,10 @@
         <v>39644743</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>100030006</v>
@@ -1226,19 +1232,19 @@
         <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1249,10 +1255,10 @@
         <v>39644743</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>100030006</v>
@@ -1264,22 +1270,22 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1290,10 +1296,10 @@
         <v>80124325</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>100030006</v>
@@ -1305,19 +1311,19 @@
         <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1328,10 +1334,10 @@
         <v>80124325</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>100030006</v>
@@ -1343,19 +1349,19 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1366,10 +1372,10 @@
         <v>1000522274</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>100030006</v>
@@ -1381,19 +1387,19 @@
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1404,10 +1410,10 @@
         <v>1000522274</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>100030006</v>
@@ -1419,19 +1425,19 @@
         <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1442,10 +1448,10 @@
         <v>1057585786</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>100030006</v>
@@ -1457,19 +1463,19 @@
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1480,10 +1486,10 @@
         <v>1057585786</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>100030006</v>
@@ -1495,19 +1501,19 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1518,10 +1524,10 @@
         <v>1057585786</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>100030006</v>
@@ -1533,19 +1539,19 @@
         <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K23" t="s">
         <v>21</v>
       </c>
       <c r="M23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1556,10 +1562,10 @@
         <v>1019098135</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E24">
         <v>100030007</v>
@@ -1571,16 +1577,16 @@
         <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="K24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M24" t="s">
         <v>12</v>
@@ -1594,10 +1600,10 @@
         <v>39731066</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>100030008</v>
@@ -1609,13 +1615,13 @@
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s">
         <v>21</v>
@@ -1629,31 +1635,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1192914540</v>
+        <v>123456</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26">
-        <v>200010091</v>
+        <v>100030015</v>
       </c>
       <c r="F26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K26" t="s">
         <v>24</v>
@@ -1664,40 +1670,37 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>74373736</v>
+        <v>123456</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E27">
-        <v>200010109</v>
+        <v>100030015</v>
       </c>
       <c r="F27">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G27">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="M27" t="s">
         <v>12</v>
@@ -1705,37 +1708,37 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>1045674271</v>
+        <v>123456</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
         <v>51</v>
       </c>
       <c r="E28">
-        <v>200010129</v>
+        <v>100030015</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I28" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="K28" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="M28" t="s">
         <v>12</v>
@@ -1743,78 +1746,195 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>79860226</v>
+        <v>1192914540</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
         <v>52</v>
       </c>
       <c r="E29">
-        <v>200010182</v>
+        <v>200010091</v>
       </c>
       <c r="F29">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G29">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M29" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>74373736</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30">
+        <v>200010109</v>
+      </c>
+      <c r="F30">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="G30">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>91</v>
+      </c>
+      <c r="M30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>1045674271</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31">
+        <v>200010129</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>79860226</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32">
+        <v>200010182</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
         <v>1121923109</v>
       </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30">
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33">
         <v>200010182</v>
       </c>
-      <c r="F30">
+      <c r="F33">
         <v>30</v>
       </c>
-      <c r="G30">
+      <c r="G33">
         <v>30</v>
       </c>
-      <c r="H30" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" t="s">
-        <v>72</v>
-      </c>
-      <c r="K30" t="s">
-        <v>27</v>
-      </c>
-      <c r="M30" t="s">
-        <v>90</v>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/radio/Reporte Novedades.xlsx
+++ b/radio/Reporte Novedades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Nombre Del Empleado</t>
   </si>
@@ -53,6 +53,24 @@
   </si>
   <si>
     <t>Alerta</t>
+  </si>
+  <si>
+    <t>PRADA RODRIGUEZ ELIZABETH</t>
+  </si>
+  <si>
+    <t>2013-05-14</t>
+  </si>
+  <si>
+    <t>DIRECCION JURIDICA</t>
+  </si>
+  <si>
+    <t>Vacaciones Disfrutadas</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2023-01-14</t>
   </si>
 </sst>
 </file>
@@ -410,25 +428,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="nan" customWidth="1"/>
-    <col min="2" max="2" width="nan" customWidth="1"/>
-    <col min="3" max="3" width="nan" customWidth="1"/>
-    <col min="4" max="4" width="nan" customWidth="1"/>
-    <col min="5" max="5" width="nan" customWidth="1"/>
-    <col min="6" max="6" width="nan" customWidth="1"/>
-    <col min="7" max="7" width="nan" customWidth="1"/>
-    <col min="8" max="8" width="nan" customWidth="1"/>
-    <col min="9" max="9" width="nan" customWidth="1"/>
-    <col min="10" max="10" width="nan" customWidth="1"/>
-    <col min="11" max="11" width="nan" customWidth="1"/>
-    <col min="12" max="12" width="nan" customWidth="1"/>
-    <col min="13" max="13" width="nan" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -472,6 +490,44 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>39819564</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>100030003</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
